--- a/Code/Results/Cases/Case_4_76/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_76/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014749981952424</v>
+        <v>1.038260940891049</v>
       </c>
       <c r="D2">
-        <v>1.029732144229992</v>
+        <v>1.040913239600666</v>
       </c>
       <c r="E2">
-        <v>1.031905546634016</v>
+        <v>1.052049505942946</v>
       </c>
       <c r="F2">
-        <v>1.037694932588834</v>
+        <v>1.059980282238356</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052564306056321</v>
+        <v>1.042238535863114</v>
       </c>
       <c r="J2">
-        <v>1.036498299223954</v>
+        <v>1.043359340641833</v>
       </c>
       <c r="K2">
-        <v>1.040792238553181</v>
+        <v>1.043694241123195</v>
       </c>
       <c r="L2">
-        <v>1.042937585623938</v>
+        <v>1.054799314032762</v>
       </c>
       <c r="M2">
-        <v>1.048652955532662</v>
+        <v>1.062708308513658</v>
       </c>
       <c r="N2">
-        <v>1.015952263252681</v>
+        <v>1.018380496326309</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01871741748745</v>
+        <v>1.039100721899552</v>
       </c>
       <c r="D3">
-        <v>1.032593353689437</v>
+        <v>1.041534614806333</v>
       </c>
       <c r="E3">
-        <v>1.03557132974346</v>
+        <v>1.052881849971335</v>
       </c>
       <c r="F3">
-        <v>1.041714680066655</v>
+        <v>1.060899726521548</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053888515508316</v>
+        <v>1.042461467614356</v>
       </c>
       <c r="J3">
-        <v>1.03871051380585</v>
+        <v>1.043844391716764</v>
       </c>
       <c r="K3">
-        <v>1.042825513035613</v>
+        <v>1.044126634127934</v>
       </c>
       <c r="L3">
-        <v>1.045768433254615</v>
+        <v>1.055444375993535</v>
       </c>
       <c r="M3">
-        <v>1.051840248399533</v>
+        <v>1.063441822878299</v>
       </c>
       <c r="N3">
-        <v>1.016695606881646</v>
+        <v>1.01854258267677</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.021236635798753</v>
+        <v>1.039644658303895</v>
       </c>
       <c r="D4">
-        <v>1.034412361427645</v>
+        <v>1.041937061483112</v>
       </c>
       <c r="E4">
-        <v>1.037904038463691</v>
+        <v>1.053421342129909</v>
       </c>
       <c r="F4">
-        <v>1.044272645706106</v>
+        <v>1.061495719936049</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054719631773777</v>
+        <v>1.04260466508376</v>
       </c>
       <c r="J4">
-        <v>1.040112276362309</v>
+        <v>1.044158125593912</v>
       </c>
       <c r="K4">
-        <v>1.04411246908074</v>
+        <v>1.044406104102086</v>
       </c>
       <c r="L4">
-        <v>1.047565545204883</v>
+        <v>1.05586203394583</v>
       </c>
       <c r="M4">
-        <v>1.053864562405807</v>
+        <v>1.063916873560452</v>
       </c>
       <c r="N4">
-        <v>1.017166529781875</v>
+        <v>1.018647386375969</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.02228458795155</v>
+        <v>1.039873457380676</v>
       </c>
       <c r="D5">
-        <v>1.035169528288105</v>
+        <v>1.042106338271637</v>
       </c>
       <c r="E5">
-        <v>1.038875588920328</v>
+        <v>1.053648360717133</v>
       </c>
       <c r="F5">
-        <v>1.045338024905187</v>
+        <v>1.061746525505026</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055062995667708</v>
+        <v>1.042664612139034</v>
       </c>
       <c r="J5">
-        <v>1.040694655689955</v>
+        <v>1.044289987831182</v>
       </c>
       <c r="K5">
-        <v>1.044646800657148</v>
+        <v>1.044523516167676</v>
       </c>
       <c r="L5">
-        <v>1.04831299053476</v>
+        <v>1.056037678086328</v>
       </c>
       <c r="M5">
-        <v>1.054706729240443</v>
+        <v>1.064116683341717</v>
       </c>
       <c r="N5">
-        <v>1.01736215534835</v>
+        <v>1.018691426978384</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.02245990136248</v>
+        <v>1.039911881226495</v>
       </c>
       <c r="D6">
-        <v>1.035296223474612</v>
+        <v>1.042134765713445</v>
       </c>
       <c r="E6">
-        <v>1.039038189840638</v>
+        <v>1.053686490757196</v>
       </c>
       <c r="F6">
-        <v>1.04551633013001</v>
+        <v>1.061788651468125</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055120297437567</v>
+        <v>1.042674662645743</v>
       </c>
       <c r="J6">
-        <v>1.040792039103507</v>
+        <v>1.044312126200593</v>
       </c>
       <c r="K6">
-        <v>1.044736128862631</v>
+        <v>1.044543225614252</v>
       </c>
       <c r="L6">
-        <v>1.048438023762956</v>
+        <v>1.056067173030136</v>
       </c>
       <c r="M6">
-        <v>1.054847620893596</v>
+        <v>1.064150238012546</v>
       </c>
       <c r="N6">
-        <v>1.017394865618368</v>
+        <v>1.018698820469908</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.021250681844717</v>
+        <v>1.039647715026478</v>
       </c>
       <c r="D7">
-        <v>1.034422508099397</v>
+        <v>1.041939323023344</v>
       </c>
       <c r="E7">
-        <v>1.037917055831877</v>
+        <v>1.053424374716517</v>
       </c>
       <c r="F7">
-        <v>1.044286920187518</v>
+        <v>1.061499070232494</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054724243381149</v>
+        <v>1.042605467094948</v>
       </c>
       <c r="J7">
-        <v>1.040120085099963</v>
+        <v>1.044159887668766</v>
       </c>
       <c r="K7">
-        <v>1.044119634972464</v>
+        <v>1.044407673272316</v>
       </c>
       <c r="L7">
-        <v>1.047575563978463</v>
+        <v>1.055864380674583</v>
       </c>
       <c r="M7">
-        <v>1.053875849935044</v>
+        <v>1.063919543043541</v>
       </c>
       <c r="N7">
-        <v>1.017169152897532</v>
+        <v>1.018647974923359</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.016100950571552</v>
+        <v>1.03854463568322</v>
       </c>
       <c r="D8">
-        <v>1.030705937994359</v>
+        <v>1.04112315754173</v>
       </c>
       <c r="E8">
-        <v>1.033152729299106</v>
+        <v>1.052330611047167</v>
       </c>
       <c r="F8">
-        <v>1.039062544424156</v>
+        <v>1.060290793946174</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053017233965333</v>
+        <v>1.042314094528267</v>
       </c>
       <c r="J8">
-        <v>1.037252189109333</v>
+        <v>1.043523291430563</v>
       </c>
       <c r="K8">
-        <v>1.041485441077401</v>
+        <v>1.043840435341261</v>
       </c>
       <c r="L8">
-        <v>1.043901597898506</v>
+        <v>1.055017261096431</v>
       </c>
       <c r="M8">
-        <v>1.049738161107703</v>
+        <v>1.062956115674516</v>
       </c>
       <c r="N8">
-        <v>1.016205602022413</v>
+        <v>1.018435289849744</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.006642076033753</v>
+        <v>1.03660508717151</v>
       </c>
       <c r="D9">
-        <v>1.023898968347807</v>
+        <v>1.039687917806609</v>
       </c>
       <c r="E9">
-        <v>1.024442845567487</v>
+        <v>1.050410306031985</v>
       </c>
       <c r="F9">
-        <v>1.02951132930322</v>
+        <v>1.058169788998531</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049806305393846</v>
+        <v>1.041792618115486</v>
       </c>
       <c r="J9">
-        <v>1.031962446180129</v>
+        <v>1.042400609872633</v>
       </c>
       <c r="K9">
-        <v>1.036615846327336</v>
+        <v>1.04283851186971</v>
       </c>
       <c r="L9">
-        <v>1.037151422751704</v>
+        <v>1.053526581164024</v>
       </c>
       <c r="M9">
-        <v>1.042143086958777</v>
+        <v>1.061261702576988</v>
       </c>
       <c r="N9">
-        <v>1.014427725133135</v>
+        <v>1.018059941088907</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.000052725600195</v>
+        <v>1.035314981735325</v>
       </c>
       <c r="D10">
-        <v>1.019173084140975</v>
+        <v>1.03873317220993</v>
       </c>
       <c r="E10">
-        <v>1.018404832121086</v>
+        <v>1.049134944517566</v>
       </c>
       <c r="F10">
-        <v>1.022889298787027</v>
+        <v>1.056761359855687</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047520579222361</v>
+        <v>1.041439606514577</v>
       </c>
       <c r="J10">
-        <v>1.028264251766968</v>
+        <v>1.041651608445245</v>
       </c>
       <c r="K10">
-        <v>1.033204581732116</v>
+        <v>1.042169033820652</v>
       </c>
       <c r="L10">
-        <v>1.032449547131766</v>
+        <v>1.052534260685406</v>
       </c>
       <c r="M10">
-        <v>1.036857222602646</v>
+        <v>1.060134384402748</v>
       </c>
       <c r="N10">
-        <v>1.013184493378757</v>
+        <v>1.017809351000965</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9971262568279368</v>
+        <v>1.034757065086245</v>
       </c>
       <c r="D11">
-        <v>1.017078697589395</v>
+        <v>1.038320271215164</v>
       </c>
       <c r="E11">
-        <v>1.015730657018551</v>
+        <v>1.048583869273349</v>
       </c>
       <c r="F11">
-        <v>1.019956150834537</v>
+        <v>1.056152838996284</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046494346089552</v>
+        <v>1.04128548665342</v>
       </c>
       <c r="J11">
-        <v>1.026619077488154</v>
+        <v>1.041327167496552</v>
       </c>
       <c r="K11">
-        <v>1.03168556511723</v>
+        <v>1.04187879439821</v>
       </c>
       <c r="L11">
-        <v>1.03036189086036</v>
+        <v>1.052104940758537</v>
       </c>
       <c r="M11">
-        <v>1.034511287242602</v>
+        <v>1.059646805953446</v>
       </c>
       <c r="N11">
-        <v>1.012631401414041</v>
+        <v>1.017700763378555</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9960276880297588</v>
+        <v>1.034549937814919</v>
       </c>
       <c r="D12">
-        <v>1.016293216430003</v>
+        <v>1.038166979727213</v>
       </c>
       <c r="E12">
-        <v>1.014727951353125</v>
+        <v>1.048379352144919</v>
       </c>
       <c r="F12">
-        <v>1.018856281452731</v>
+        <v>1.055927010114089</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046107485055988</v>
+        <v>1.041228050594378</v>
       </c>
       <c r="J12">
-        <v>1.026001119897469</v>
+        <v>1.041206639069088</v>
       </c>
       <c r="K12">
-        <v>1.031114782595701</v>
+        <v>1.041770934987393</v>
       </c>
       <c r="L12">
-        <v>1.029578323936383</v>
+        <v>1.051945527963293</v>
       </c>
       <c r="M12">
-        <v>1.033630926928281</v>
+        <v>1.059465782966216</v>
       </c>
       <c r="N12">
-        <v>1.012423648530723</v>
+        <v>1.017660417449597</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9962638664600368</v>
+        <v>1.034594362414561</v>
       </c>
       <c r="D13">
-        <v>1.016462050924875</v>
+        <v>1.038199857700351</v>
       </c>
       <c r="E13">
-        <v>1.014943467626161</v>
+        <v>1.048423213736315</v>
       </c>
       <c r="F13">
-        <v>1.019092684469583</v>
+        <v>1.055975441967154</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046190727905898</v>
+        <v>1.041240379368283</v>
       </c>
       <c r="J13">
-        <v>1.026133989332981</v>
+        <v>1.041232493558874</v>
       </c>
       <c r="K13">
-        <v>1.031237518138674</v>
+        <v>1.041794073511875</v>
       </c>
       <c r="L13">
-        <v>1.029746774914229</v>
+        <v>1.051979720003381</v>
       </c>
       <c r="M13">
-        <v>1.03382017994375</v>
+        <v>1.059504609123753</v>
       </c>
       <c r="N13">
-        <v>1.01246831829144</v>
+        <v>1.017669072308538</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9970356876340701</v>
+        <v>1.03473994167324</v>
       </c>
       <c r="D14">
-        <v>1.01701392501854</v>
+        <v>1.038307598485408</v>
       </c>
       <c r="E14">
-        <v>1.015647967361651</v>
+        <v>1.048566960207753</v>
       </c>
       <c r="F14">
-        <v>1.019865449704276</v>
+        <v>1.056134167761738</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046462484882503</v>
+        <v>1.041280742823716</v>
       </c>
       <c r="J14">
-        <v>1.026568138684671</v>
+        <v>1.041317204911261</v>
       </c>
       <c r="K14">
-        <v>1.03163851924331</v>
+        <v>1.041869879750845</v>
       </c>
       <c r="L14">
-        <v>1.030297288679844</v>
+        <v>1.052091762501684</v>
       </c>
       <c r="M14">
-        <v>1.034438701840297</v>
+        <v>1.059631840786534</v>
       </c>
       <c r="N14">
-        <v>1.012614276167101</v>
+        <v>1.017697428606634</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9975096850423568</v>
+        <v>1.03482965219098</v>
       </c>
       <c r="D15">
-        <v>1.017352944994757</v>
+        <v>1.038373991568184</v>
       </c>
       <c r="E15">
-        <v>1.016080774213432</v>
+        <v>1.048655550627584</v>
       </c>
       <c r="F15">
-        <v>1.020340186996596</v>
+        <v>1.056231990897154</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046629165841179</v>
+        <v>1.04130558704817</v>
       </c>
       <c r="J15">
-        <v>1.026834713833502</v>
+        <v>1.041369396204957</v>
       </c>
       <c r="K15">
-        <v>1.031884713165992</v>
+        <v>1.041916579678506</v>
       </c>
       <c r="L15">
-        <v>1.030635391814795</v>
+        <v>1.052160803012269</v>
       </c>
       <c r="M15">
-        <v>1.034818592087314</v>
+        <v>1.05971024377067</v>
       </c>
       <c r="N15">
-        <v>1.012703896710228</v>
+        <v>1.017714898326952</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.000245356919689</v>
+        <v>1.03535202386186</v>
       </c>
       <c r="D16">
-        <v>1.019311042972427</v>
+        <v>1.038760585980963</v>
       </c>
       <c r="E16">
-        <v>1.018581014691255</v>
+        <v>1.04917154225671</v>
       </c>
       <c r="F16">
-        <v>1.023082535632935</v>
+        <v>1.05680177373025</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04758790209028</v>
+        <v>1.041449808385267</v>
       </c>
       <c r="J16">
-        <v>1.028372489445717</v>
+        <v>1.041673138128309</v>
       </c>
       <c r="K16">
-        <v>1.033304489338756</v>
+        <v>1.042188288759641</v>
       </c>
       <c r="L16">
-        <v>1.032586979137894</v>
+        <v>1.05256276097252</v>
       </c>
       <c r="M16">
-        <v>1.037011678056976</v>
+        <v>1.060166755263211</v>
       </c>
       <c r="N16">
-        <v>1.013220881498522</v>
+        <v>1.017816555945947</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.001941389704514</v>
+        <v>1.035679884302572</v>
       </c>
       <c r="D17">
-        <v>1.020526226314869</v>
+        <v>1.039003224211818</v>
       </c>
       <c r="E17">
-        <v>1.020133075323619</v>
+        <v>1.049495523247903</v>
       </c>
       <c r="F17">
-        <v>1.024784796341234</v>
+        <v>1.057159543008046</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048179390510593</v>
+        <v>1.041539936869736</v>
       </c>
       <c r="J17">
-        <v>1.02932516705519</v>
+        <v>1.041863636544205</v>
       </c>
       <c r="K17">
-        <v>1.034183680132117</v>
+        <v>1.042358631537707</v>
       </c>
       <c r="L17">
-        <v>1.033797073216344</v>
+        <v>1.05281499635634</v>
       </c>
       <c r="M17">
-        <v>1.038371779326818</v>
+        <v>1.060453263291352</v>
       </c>
       <c r="N17">
-        <v>1.013541156514441</v>
+        <v>1.017880301851663</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.002923629200696</v>
+        <v>1.035871187914039</v>
       </c>
       <c r="D18">
-        <v>1.021230408470809</v>
+        <v>1.039144800096094</v>
       </c>
       <c r="E18">
-        <v>1.02103263873332</v>
+        <v>1.049684608137447</v>
       </c>
       <c r="F18">
-        <v>1.025771385229531</v>
+        <v>1.057368352775961</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048520887456803</v>
+        <v>1.041592385329406</v>
       </c>
       <c r="J18">
-        <v>1.029876638540391</v>
+        <v>1.041974739545801</v>
       </c>
       <c r="K18">
-        <v>1.034692470891837</v>
+        <v>1.042457955652496</v>
       </c>
       <c r="L18">
-        <v>1.034497935704737</v>
+        <v>1.052962155759965</v>
       </c>
       <c r="M18">
-        <v>1.039159619809478</v>
+        <v>1.060620432287751</v>
       </c>
       <c r="N18">
-        <v>1.013726549441123</v>
+        <v>1.017917475967377</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.003257371466983</v>
+        <v>1.035936429017409</v>
       </c>
       <c r="D19">
-        <v>1.021469743061416</v>
+        <v>1.039193082092573</v>
       </c>
       <c r="E19">
-        <v>1.021338407875524</v>
+        <v>1.049749100185575</v>
       </c>
       <c r="F19">
-        <v>1.026106730416092</v>
+        <v>1.057439573336726</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048636739580392</v>
+        <v>1.04161024818944</v>
       </c>
       <c r="J19">
-        <v>1.030063970374176</v>
+        <v>1.042012620811664</v>
       </c>
       <c r="K19">
-        <v>1.034865279937295</v>
+        <v>1.042491816815536</v>
       </c>
       <c r="L19">
-        <v>1.034736079828985</v>
+        <v>1.053012339167551</v>
       </c>
       <c r="M19">
-        <v>1.039427334517491</v>
+        <v>1.060677441658311</v>
       </c>
       <c r="N19">
-        <v>1.01378952580352</v>
+        <v>1.017930150045107</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.001760152182041</v>
+        <v>1.035644700918715</v>
       </c>
       <c r="D20">
-        <v>1.020396328074807</v>
+        <v>1.038977186334205</v>
       </c>
       <c r="E20">
-        <v>1.01996714935196</v>
+        <v>1.049460751529454</v>
       </c>
       <c r="F20">
-        <v>1.024602816081175</v>
+        <v>1.05712114439423</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048116293603691</v>
+        <v>1.041530279545868</v>
       </c>
       <c r="J20">
-        <v>1.029223391126079</v>
+        <v>1.041843199048214</v>
       </c>
       <c r="K20">
-        <v>1.034089769537581</v>
+        <v>1.042340358872453</v>
       </c>
       <c r="L20">
-        <v>1.033667757575717</v>
+        <v>1.052787930279742</v>
       </c>
       <c r="M20">
-        <v>1.038226423295415</v>
+        <v>1.060422518124574</v>
       </c>
       <c r="N20">
-        <v>1.013506941359415</v>
+        <v>1.017873463322134</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9968087288631619</v>
+        <v>1.034697069221653</v>
       </c>
       <c r="D21">
-        <v>1.016851622409099</v>
+        <v>1.038275869333905</v>
       </c>
       <c r="E21">
-        <v>1.015440772780351</v>
+        <v>1.048524625561215</v>
       </c>
       <c r="F21">
-        <v>1.019638179859666</v>
+        <v>1.05608742135698</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046382617385412</v>
+        <v>1.041268862005657</v>
       </c>
       <c r="J21">
-        <v>1.026440484419025</v>
+        <v>1.041292259978546</v>
       </c>
       <c r="K21">
-        <v>1.031520617405113</v>
+        <v>1.041847558116988</v>
       </c>
       <c r="L21">
-        <v>1.030135403114563</v>
+        <v>1.052058767228174</v>
       </c>
       <c r="M21">
-        <v>1.034256813604807</v>
+        <v>1.059594371864161</v>
       </c>
       <c r="N21">
-        <v>1.012571359739792</v>
+        <v>1.017689078701725</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9936284645080079</v>
+        <v>1.034101880090533</v>
       </c>
       <c r="D22">
-        <v>1.014579173975366</v>
+        <v>1.037835377500933</v>
       </c>
       <c r="E22">
-        <v>1.01254025332785</v>
+        <v>1.047937069530026</v>
       </c>
       <c r="F22">
-        <v>1.016456469299257</v>
+        <v>1.055438653230021</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045259665836708</v>
+        <v>1.041103404832829</v>
       </c>
       <c r="J22">
-        <v>1.024650880487069</v>
+        <v>1.040945767179893</v>
       </c>
       <c r="K22">
-        <v>1.029867243549152</v>
+        <v>1.041537416954025</v>
       </c>
       <c r="L22">
-        <v>1.027867312556605</v>
+        <v>1.051600636694429</v>
       </c>
       <c r="M22">
-        <v>1.031708820774556</v>
+        <v>1.059074178071653</v>
       </c>
       <c r="N22">
-        <v>1.011969708526824</v>
+        <v>1.017573081579074</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9953209347916864</v>
+        <v>1.034417341404887</v>
       </c>
       <c r="D23">
-        <v>1.015788098767414</v>
+        <v>1.038068846961072</v>
       </c>
       <c r="E23">
-        <v>1.014083200846444</v>
+        <v>1.048248446490224</v>
       </c>
       <c r="F23">
-        <v>1.018149035337123</v>
+        <v>1.055782465551</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045858150277248</v>
+        <v>1.041191220220296</v>
       </c>
       <c r="J23">
-        <v>1.025603462019788</v>
+        <v>1.04112945823245</v>
       </c>
       <c r="K23">
-        <v>1.030747423702191</v>
+        <v>1.041701856487351</v>
       </c>
       <c r="L23">
-        <v>1.029074262525997</v>
+        <v>1.051843469238034</v>
       </c>
       <c r="M23">
-        <v>1.033064640090034</v>
+        <v>1.059349895236533</v>
       </c>
       <c r="N23">
-        <v>1.012289958801634</v>
+        <v>1.017634580071782</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.001842067295601</v>
+        <v>1.035660598564987</v>
       </c>
       <c r="D24">
-        <v>1.020455037733518</v>
+        <v>1.038988951578783</v>
       </c>
       <c r="E24">
-        <v>1.020042141824472</v>
+        <v>1.049476463025645</v>
       </c>
       <c r="F24">
-        <v>1.024685064595344</v>
+        <v>1.057138494676587</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048144815207803</v>
+        <v>1.041534643651751</v>
       </c>
       <c r="J24">
-        <v>1.029269392275151</v>
+        <v>1.041852433908606</v>
       </c>
       <c r="K24">
-        <v>1.034132216117274</v>
+        <v>1.042348615608369</v>
       </c>
       <c r="L24">
-        <v>1.033726205065407</v>
+        <v>1.052800160167444</v>
       </c>
       <c r="M24">
-        <v>1.038292120346868</v>
+        <v>1.060436410376257</v>
       </c>
       <c r="N24">
-        <v>1.013522406090883</v>
+        <v>1.017876553383397</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.009135459182074</v>
+        <v>1.037105997725217</v>
       </c>
       <c r="D25">
-        <v>1.025690740410061</v>
+        <v>1.040058602129682</v>
       </c>
       <c r="E25">
-        <v>1.0267338195029</v>
+        <v>1.050905905138649</v>
       </c>
       <c r="F25">
-        <v>1.032023691357532</v>
+        <v>1.058717144937203</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050661318977186</v>
+        <v>1.041928380456134</v>
       </c>
       <c r="J25">
-        <v>1.033359242046629</v>
+        <v>1.042690951509183</v>
       </c>
       <c r="K25">
-        <v>1.037902914072662</v>
+        <v>1.043097807707815</v>
       </c>
       <c r="L25">
-        <v>1.038930832938306</v>
+        <v>1.053911705526243</v>
       </c>
       <c r="M25">
-        <v>1.044144418552095</v>
+        <v>1.061699352039373</v>
       </c>
       <c r="N25">
-        <v>1.014897245178349</v>
+        <v>1.018157042668257</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_76/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_76/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038260940891049</v>
+        <v>1.014749981952423</v>
       </c>
       <c r="D2">
-        <v>1.040913239600666</v>
+        <v>1.029732144229992</v>
       </c>
       <c r="E2">
-        <v>1.052049505942946</v>
+        <v>1.031905546634015</v>
       </c>
       <c r="F2">
-        <v>1.059980282238356</v>
+        <v>1.037694932588833</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042238535863114</v>
+        <v>1.05256430605632</v>
       </c>
       <c r="J2">
-        <v>1.043359340641833</v>
+        <v>1.036498299223953</v>
       </c>
       <c r="K2">
-        <v>1.043694241123195</v>
+        <v>1.040792238553181</v>
       </c>
       <c r="L2">
-        <v>1.054799314032762</v>
+        <v>1.042937585623937</v>
       </c>
       <c r="M2">
-        <v>1.062708308513658</v>
+        <v>1.048652955532661</v>
       </c>
       <c r="N2">
-        <v>1.018380496326309</v>
+        <v>1.01595226325268</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039100721899552</v>
+        <v>1.018717417487449</v>
       </c>
       <c r="D3">
-        <v>1.041534614806333</v>
+        <v>1.032593353689437</v>
       </c>
       <c r="E3">
-        <v>1.052881849971335</v>
+        <v>1.035571329743459</v>
       </c>
       <c r="F3">
-        <v>1.060899726521548</v>
+        <v>1.041714680066654</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042461467614356</v>
+        <v>1.053888515508315</v>
       </c>
       <c r="J3">
-        <v>1.043844391716764</v>
+        <v>1.03871051380585</v>
       </c>
       <c r="K3">
-        <v>1.044126634127934</v>
+        <v>1.042825513035613</v>
       </c>
       <c r="L3">
-        <v>1.055444375993535</v>
+        <v>1.045768433254614</v>
       </c>
       <c r="M3">
-        <v>1.063441822878299</v>
+        <v>1.051840248399532</v>
       </c>
       <c r="N3">
-        <v>1.01854258267677</v>
+        <v>1.016695606881646</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039644658303895</v>
+        <v>1.021236635798753</v>
       </c>
       <c r="D4">
-        <v>1.041937061483112</v>
+        <v>1.034412361427645</v>
       </c>
       <c r="E4">
-        <v>1.053421342129909</v>
+        <v>1.037904038463691</v>
       </c>
       <c r="F4">
-        <v>1.061495719936049</v>
+        <v>1.044272645706106</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04260466508376</v>
+        <v>1.054719631773777</v>
       </c>
       <c r="J4">
-        <v>1.044158125593912</v>
+        <v>1.040112276362309</v>
       </c>
       <c r="K4">
-        <v>1.044406104102086</v>
+        <v>1.04411246908074</v>
       </c>
       <c r="L4">
-        <v>1.05586203394583</v>
+        <v>1.047565545204883</v>
       </c>
       <c r="M4">
-        <v>1.063916873560452</v>
+        <v>1.053864562405807</v>
       </c>
       <c r="N4">
-        <v>1.018647386375969</v>
+        <v>1.017166529781875</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039873457380676</v>
+        <v>1.02228458795155</v>
       </c>
       <c r="D5">
-        <v>1.042106338271637</v>
+        <v>1.035169528288105</v>
       </c>
       <c r="E5">
-        <v>1.053648360717133</v>
+        <v>1.038875588920328</v>
       </c>
       <c r="F5">
-        <v>1.061746525505026</v>
+        <v>1.045338024905187</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042664612139034</v>
+        <v>1.055062995667708</v>
       </c>
       <c r="J5">
-        <v>1.044289987831182</v>
+        <v>1.040694655689955</v>
       </c>
       <c r="K5">
-        <v>1.044523516167676</v>
+        <v>1.044646800657148</v>
       </c>
       <c r="L5">
-        <v>1.056037678086328</v>
+        <v>1.04831299053476</v>
       </c>
       <c r="M5">
-        <v>1.064116683341717</v>
+        <v>1.054706729240443</v>
       </c>
       <c r="N5">
-        <v>1.018691426978384</v>
+        <v>1.01736215534835</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039911881226495</v>
+        <v>1.02245990136248</v>
       </c>
       <c r="D6">
-        <v>1.042134765713445</v>
+        <v>1.035296223474613</v>
       </c>
       <c r="E6">
-        <v>1.053686490757196</v>
+        <v>1.039038189840638</v>
       </c>
       <c r="F6">
-        <v>1.061788651468125</v>
+        <v>1.04551633013001</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042674662645743</v>
+        <v>1.055120297437567</v>
       </c>
       <c r="J6">
-        <v>1.044312126200593</v>
+        <v>1.040792039103508</v>
       </c>
       <c r="K6">
-        <v>1.044543225614252</v>
+        <v>1.044736128862632</v>
       </c>
       <c r="L6">
-        <v>1.056067173030136</v>
+        <v>1.048438023762957</v>
       </c>
       <c r="M6">
-        <v>1.064150238012546</v>
+        <v>1.054847620893596</v>
       </c>
       <c r="N6">
-        <v>1.018698820469908</v>
+        <v>1.017394865618368</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039647715026478</v>
+        <v>1.021250681844716</v>
       </c>
       <c r="D7">
-        <v>1.041939323023344</v>
+        <v>1.034422508099395</v>
       </c>
       <c r="E7">
-        <v>1.053424374716517</v>
+        <v>1.037917055831876</v>
       </c>
       <c r="F7">
-        <v>1.061499070232494</v>
+        <v>1.044286920187517</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042605467094948</v>
+        <v>1.054724243381149</v>
       </c>
       <c r="J7">
-        <v>1.044159887668766</v>
+        <v>1.040120085099962</v>
       </c>
       <c r="K7">
-        <v>1.044407673272316</v>
+        <v>1.044119634972463</v>
       </c>
       <c r="L7">
-        <v>1.055864380674583</v>
+        <v>1.047575563978462</v>
       </c>
       <c r="M7">
-        <v>1.063919543043541</v>
+        <v>1.053875849935043</v>
       </c>
       <c r="N7">
-        <v>1.018647974923359</v>
+        <v>1.017169152897531</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03854463568322</v>
+        <v>1.016100950571551</v>
       </c>
       <c r="D8">
-        <v>1.04112315754173</v>
+        <v>1.030705937994358</v>
       </c>
       <c r="E8">
-        <v>1.052330611047167</v>
+        <v>1.033152729299105</v>
       </c>
       <c r="F8">
-        <v>1.060290793946174</v>
+        <v>1.039062544424155</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042314094528267</v>
+        <v>1.053017233965332</v>
       </c>
       <c r="J8">
-        <v>1.043523291430563</v>
+        <v>1.037252189109332</v>
       </c>
       <c r="K8">
-        <v>1.043840435341261</v>
+        <v>1.0414854410774</v>
       </c>
       <c r="L8">
-        <v>1.055017261096431</v>
+        <v>1.043901597898505</v>
       </c>
       <c r="M8">
-        <v>1.062956115674516</v>
+        <v>1.049738161107702</v>
       </c>
       <c r="N8">
-        <v>1.018435289849744</v>
+        <v>1.016205602022413</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03660508717151</v>
+        <v>1.006642076033753</v>
       </c>
       <c r="D9">
-        <v>1.039687917806609</v>
+        <v>1.023898968347807</v>
       </c>
       <c r="E9">
-        <v>1.050410306031985</v>
+        <v>1.024442845567487</v>
       </c>
       <c r="F9">
-        <v>1.058169788998531</v>
+        <v>1.029511329303219</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041792618115486</v>
+        <v>1.049806305393846</v>
       </c>
       <c r="J9">
-        <v>1.042400609872633</v>
+        <v>1.031962446180129</v>
       </c>
       <c r="K9">
-        <v>1.04283851186971</v>
+        <v>1.036615846327335</v>
       </c>
       <c r="L9">
-        <v>1.053526581164024</v>
+        <v>1.037151422751704</v>
       </c>
       <c r="M9">
-        <v>1.061261702576988</v>
+        <v>1.042143086958777</v>
       </c>
       <c r="N9">
-        <v>1.018059941088907</v>
+        <v>1.014427725133135</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035314981735325</v>
+        <v>1.000052725600196</v>
       </c>
       <c r="D10">
-        <v>1.03873317220993</v>
+        <v>1.019173084140976</v>
       </c>
       <c r="E10">
-        <v>1.049134944517566</v>
+        <v>1.018404832121088</v>
       </c>
       <c r="F10">
-        <v>1.056761359855687</v>
+        <v>1.022889298787029</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041439606514577</v>
+        <v>1.047520579222361</v>
       </c>
       <c r="J10">
-        <v>1.041651608445245</v>
+        <v>1.028264251766969</v>
       </c>
       <c r="K10">
-        <v>1.042169033820652</v>
+        <v>1.033204581732117</v>
       </c>
       <c r="L10">
-        <v>1.052534260685406</v>
+        <v>1.032449547131767</v>
       </c>
       <c r="M10">
-        <v>1.060134384402748</v>
+        <v>1.036857222602647</v>
       </c>
       <c r="N10">
-        <v>1.017809351000965</v>
+        <v>1.013184493378758</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034757065086245</v>
+        <v>0.9971262568279362</v>
       </c>
       <c r="D11">
-        <v>1.038320271215164</v>
+        <v>1.017078697589394</v>
       </c>
       <c r="E11">
-        <v>1.048583869273349</v>
+        <v>1.015730657018551</v>
       </c>
       <c r="F11">
-        <v>1.056152838996284</v>
+        <v>1.019956150834537</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04128548665342</v>
+        <v>1.046494346089552</v>
       </c>
       <c r="J11">
-        <v>1.041327167496552</v>
+        <v>1.026619077488154</v>
       </c>
       <c r="K11">
-        <v>1.04187879439821</v>
+        <v>1.031685565117229</v>
       </c>
       <c r="L11">
-        <v>1.052104940758537</v>
+        <v>1.03036189086036</v>
       </c>
       <c r="M11">
-        <v>1.059646805953446</v>
+        <v>1.034511287242602</v>
       </c>
       <c r="N11">
-        <v>1.017700763378555</v>
+        <v>1.01263140141404</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034549937814919</v>
+        <v>0.9960276880297591</v>
       </c>
       <c r="D12">
-        <v>1.038166979727213</v>
+        <v>1.016293216430003</v>
       </c>
       <c r="E12">
-        <v>1.048379352144919</v>
+        <v>1.014727951353125</v>
       </c>
       <c r="F12">
-        <v>1.055927010114089</v>
+        <v>1.018856281452731</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041228050594378</v>
+        <v>1.046107485055988</v>
       </c>
       <c r="J12">
-        <v>1.041206639069088</v>
+        <v>1.026001119897469</v>
       </c>
       <c r="K12">
-        <v>1.041770934987393</v>
+        <v>1.031114782595701</v>
       </c>
       <c r="L12">
-        <v>1.051945527963293</v>
+        <v>1.029578323936383</v>
       </c>
       <c r="M12">
-        <v>1.059465782966216</v>
+        <v>1.033630926928281</v>
       </c>
       <c r="N12">
-        <v>1.017660417449597</v>
+        <v>1.012423648530723</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034594362414561</v>
+        <v>0.9962638664600373</v>
       </c>
       <c r="D13">
-        <v>1.038199857700351</v>
+        <v>1.016462050924875</v>
       </c>
       <c r="E13">
-        <v>1.048423213736315</v>
+        <v>1.014943467626161</v>
       </c>
       <c r="F13">
-        <v>1.055975441967154</v>
+        <v>1.019092684469584</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041240379368283</v>
+        <v>1.046190727905898</v>
       </c>
       <c r="J13">
-        <v>1.041232493558874</v>
+        <v>1.026133989332981</v>
       </c>
       <c r="K13">
-        <v>1.041794073511875</v>
+        <v>1.031237518138674</v>
       </c>
       <c r="L13">
-        <v>1.051979720003381</v>
+        <v>1.02974677491423</v>
       </c>
       <c r="M13">
-        <v>1.059504609123753</v>
+        <v>1.033820179943751</v>
       </c>
       <c r="N13">
-        <v>1.017669072308538</v>
+        <v>1.01246831829144</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03473994167324</v>
+        <v>0.9970356876340699</v>
       </c>
       <c r="D14">
-        <v>1.038307598485408</v>
+        <v>1.017013925018539</v>
       </c>
       <c r="E14">
-        <v>1.048566960207753</v>
+        <v>1.015647967361651</v>
       </c>
       <c r="F14">
-        <v>1.056134167761738</v>
+        <v>1.019865449704276</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041280742823716</v>
+        <v>1.046462484882503</v>
       </c>
       <c r="J14">
-        <v>1.041317204911261</v>
+        <v>1.026568138684671</v>
       </c>
       <c r="K14">
-        <v>1.041869879750845</v>
+        <v>1.03163851924331</v>
       </c>
       <c r="L14">
-        <v>1.052091762501684</v>
+        <v>1.030297288679844</v>
       </c>
       <c r="M14">
-        <v>1.059631840786534</v>
+        <v>1.034438701840296</v>
       </c>
       <c r="N14">
-        <v>1.017697428606634</v>
+        <v>1.012614276167101</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03482965219098</v>
+        <v>0.9975096850423569</v>
       </c>
       <c r="D15">
-        <v>1.038373991568184</v>
+        <v>1.017352944994757</v>
       </c>
       <c r="E15">
-        <v>1.048655550627584</v>
+        <v>1.016080774213432</v>
       </c>
       <c r="F15">
-        <v>1.056231990897154</v>
+        <v>1.020340186996597</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04130558704817</v>
+        <v>1.046629165841179</v>
       </c>
       <c r="J15">
-        <v>1.041369396204957</v>
+        <v>1.026834713833502</v>
       </c>
       <c r="K15">
-        <v>1.041916579678506</v>
+        <v>1.031884713165992</v>
       </c>
       <c r="L15">
-        <v>1.052160803012269</v>
+        <v>1.030635391814796</v>
       </c>
       <c r="M15">
-        <v>1.05971024377067</v>
+        <v>1.034818592087315</v>
       </c>
       <c r="N15">
-        <v>1.017714898326952</v>
+        <v>1.012703896710228</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03535202386186</v>
+        <v>1.000245356919688</v>
       </c>
       <c r="D16">
-        <v>1.038760585980963</v>
+        <v>1.019311042972425</v>
       </c>
       <c r="E16">
-        <v>1.04917154225671</v>
+        <v>1.018581014691254</v>
       </c>
       <c r="F16">
-        <v>1.05680177373025</v>
+        <v>1.023082535632934</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041449808385267</v>
+        <v>1.047587902090279</v>
       </c>
       <c r="J16">
-        <v>1.041673138128309</v>
+        <v>1.028372489445716</v>
       </c>
       <c r="K16">
-        <v>1.042188288759641</v>
+        <v>1.033304489338754</v>
       </c>
       <c r="L16">
-        <v>1.05256276097252</v>
+        <v>1.032586979137893</v>
       </c>
       <c r="M16">
-        <v>1.060166755263211</v>
+        <v>1.037011678056975</v>
       </c>
       <c r="N16">
-        <v>1.017816555945947</v>
+        <v>1.013220881498521</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035679884302572</v>
+        <v>1.001941389704514</v>
       </c>
       <c r="D17">
-        <v>1.039003224211818</v>
+        <v>1.020526226314869</v>
       </c>
       <c r="E17">
-        <v>1.049495523247903</v>
+        <v>1.020133075323619</v>
       </c>
       <c r="F17">
-        <v>1.057159543008046</v>
+        <v>1.024784796341234</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041539936869736</v>
+        <v>1.048179390510593</v>
       </c>
       <c r="J17">
-        <v>1.041863636544205</v>
+        <v>1.029325167055189</v>
       </c>
       <c r="K17">
-        <v>1.042358631537707</v>
+        <v>1.034183680132117</v>
       </c>
       <c r="L17">
-        <v>1.05281499635634</v>
+        <v>1.033797073216344</v>
       </c>
       <c r="M17">
-        <v>1.060453263291352</v>
+        <v>1.038371779326818</v>
       </c>
       <c r="N17">
-        <v>1.017880301851663</v>
+        <v>1.013541156514441</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035871187914039</v>
+        <v>1.002923629200694</v>
       </c>
       <c r="D18">
-        <v>1.039144800096094</v>
+        <v>1.021230408470807</v>
       </c>
       <c r="E18">
-        <v>1.049684608137447</v>
+        <v>1.021032638733319</v>
       </c>
       <c r="F18">
-        <v>1.057368352775961</v>
+        <v>1.02577138522953</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041592385329406</v>
+        <v>1.048520887456802</v>
       </c>
       <c r="J18">
-        <v>1.041974739545801</v>
+        <v>1.029876638540389</v>
       </c>
       <c r="K18">
-        <v>1.042457955652496</v>
+        <v>1.034692470891836</v>
       </c>
       <c r="L18">
-        <v>1.052962155759965</v>
+        <v>1.034497935704736</v>
       </c>
       <c r="M18">
-        <v>1.060620432287751</v>
+        <v>1.039159619809476</v>
       </c>
       <c r="N18">
-        <v>1.017917475967377</v>
+        <v>1.013726549441122</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035936429017409</v>
+        <v>1.003257371466982</v>
       </c>
       <c r="D19">
-        <v>1.039193082092573</v>
+        <v>1.021469743061417</v>
       </c>
       <c r="E19">
-        <v>1.049749100185575</v>
+        <v>1.021338407875524</v>
       </c>
       <c r="F19">
-        <v>1.057439573336726</v>
+        <v>1.026106730416092</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04161024818944</v>
+        <v>1.048636739580392</v>
       </c>
       <c r="J19">
-        <v>1.042012620811664</v>
+        <v>1.030063970374176</v>
       </c>
       <c r="K19">
-        <v>1.042491816815536</v>
+        <v>1.034865279937295</v>
       </c>
       <c r="L19">
-        <v>1.053012339167551</v>
+        <v>1.034736079828985</v>
       </c>
       <c r="M19">
-        <v>1.060677441658311</v>
+        <v>1.039427334517491</v>
       </c>
       <c r="N19">
-        <v>1.017930150045107</v>
+        <v>1.01378952580352</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035644700918715</v>
+        <v>1.001760152182042</v>
       </c>
       <c r="D20">
-        <v>1.038977186334205</v>
+        <v>1.020396328074807</v>
       </c>
       <c r="E20">
-        <v>1.049460751529454</v>
+        <v>1.019967149351961</v>
       </c>
       <c r="F20">
-        <v>1.05712114439423</v>
+        <v>1.024602816081176</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041530279545868</v>
+        <v>1.048116293603692</v>
       </c>
       <c r="J20">
-        <v>1.041843199048214</v>
+        <v>1.02922339112608</v>
       </c>
       <c r="K20">
-        <v>1.042340358872453</v>
+        <v>1.034089769537582</v>
       </c>
       <c r="L20">
-        <v>1.052787930279742</v>
+        <v>1.033667757575718</v>
       </c>
       <c r="M20">
-        <v>1.060422518124574</v>
+        <v>1.038226423295415</v>
       </c>
       <c r="N20">
-        <v>1.017873463322134</v>
+        <v>1.013506941359415</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034697069221653</v>
+        <v>0.996808728863161</v>
       </c>
       <c r="D21">
-        <v>1.038275869333905</v>
+        <v>1.016851622409098</v>
       </c>
       <c r="E21">
-        <v>1.048524625561215</v>
+        <v>1.01544077278035</v>
       </c>
       <c r="F21">
-        <v>1.05608742135698</v>
+        <v>1.019638179859665</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041268862005657</v>
+        <v>1.046382617385411</v>
       </c>
       <c r="J21">
-        <v>1.041292259978546</v>
+        <v>1.026440484419024</v>
       </c>
       <c r="K21">
-        <v>1.041847558116988</v>
+        <v>1.031520617405112</v>
       </c>
       <c r="L21">
-        <v>1.052058767228174</v>
+        <v>1.030135403114562</v>
       </c>
       <c r="M21">
-        <v>1.059594371864161</v>
+        <v>1.034256813604806</v>
       </c>
       <c r="N21">
-        <v>1.017689078701725</v>
+        <v>1.012571359739791</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034101880090533</v>
+        <v>0.993628464508008</v>
       </c>
       <c r="D22">
-        <v>1.037835377500933</v>
+        <v>1.014579173975366</v>
       </c>
       <c r="E22">
-        <v>1.047937069530026</v>
+        <v>1.01254025332785</v>
       </c>
       <c r="F22">
-        <v>1.055438653230021</v>
+        <v>1.016456469299257</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041103404832829</v>
+        <v>1.045259665836708</v>
       </c>
       <c r="J22">
-        <v>1.040945767179893</v>
+        <v>1.024650880487069</v>
       </c>
       <c r="K22">
-        <v>1.041537416954025</v>
+        <v>1.029867243549152</v>
       </c>
       <c r="L22">
-        <v>1.051600636694429</v>
+        <v>1.027867312556605</v>
       </c>
       <c r="M22">
-        <v>1.059074178071653</v>
+        <v>1.031708820774556</v>
       </c>
       <c r="N22">
-        <v>1.017573081579074</v>
+        <v>1.011969708526824</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034417341404887</v>
+        <v>0.9953209347916866</v>
       </c>
       <c r="D23">
-        <v>1.038068846961072</v>
+        <v>1.015788098767414</v>
       </c>
       <c r="E23">
-        <v>1.048248446490224</v>
+        <v>1.014083200846444</v>
       </c>
       <c r="F23">
-        <v>1.055782465551</v>
+        <v>1.018149035337123</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041191220220296</v>
+        <v>1.045858150277247</v>
       </c>
       <c r="J23">
-        <v>1.04112945823245</v>
+        <v>1.025603462019788</v>
       </c>
       <c r="K23">
-        <v>1.041701856487351</v>
+        <v>1.030747423702191</v>
       </c>
       <c r="L23">
-        <v>1.051843469238034</v>
+        <v>1.029074262525997</v>
       </c>
       <c r="M23">
-        <v>1.059349895236533</v>
+        <v>1.033064640090034</v>
       </c>
       <c r="N23">
-        <v>1.017634580071782</v>
+        <v>1.012289958801634</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035660598564987</v>
+        <v>1.0018420672956</v>
       </c>
       <c r="D24">
-        <v>1.038988951578783</v>
+        <v>1.020455037733518</v>
       </c>
       <c r="E24">
-        <v>1.049476463025645</v>
+        <v>1.020042141824471</v>
       </c>
       <c r="F24">
-        <v>1.057138494676587</v>
+        <v>1.024685064595343</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041534643651751</v>
+        <v>1.048144815207802</v>
       </c>
       <c r="J24">
-        <v>1.041852433908606</v>
+        <v>1.029269392275151</v>
       </c>
       <c r="K24">
-        <v>1.042348615608369</v>
+        <v>1.034132216117274</v>
       </c>
       <c r="L24">
-        <v>1.052800160167444</v>
+        <v>1.033726205065406</v>
       </c>
       <c r="M24">
-        <v>1.060436410376257</v>
+        <v>1.038292120346868</v>
       </c>
       <c r="N24">
-        <v>1.017876553383397</v>
+        <v>1.013522406090882</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037105997725217</v>
+        <v>1.009135459182073</v>
       </c>
       <c r="D25">
-        <v>1.040058602129682</v>
+        <v>1.025690740410062</v>
       </c>
       <c r="E25">
-        <v>1.050905905138649</v>
+        <v>1.026733819502899</v>
       </c>
       <c r="F25">
-        <v>1.058717144937203</v>
+        <v>1.032023691357532</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041928380456134</v>
+        <v>1.050661318977186</v>
       </c>
       <c r="J25">
-        <v>1.042690951509183</v>
+        <v>1.033359242046628</v>
       </c>
       <c r="K25">
-        <v>1.043097807707815</v>
+        <v>1.037902914072663</v>
       </c>
       <c r="L25">
-        <v>1.053911705526243</v>
+        <v>1.038930832938306</v>
       </c>
       <c r="M25">
-        <v>1.061699352039373</v>
+        <v>1.044144418552095</v>
       </c>
       <c r="N25">
-        <v>1.018157042668257</v>
+        <v>1.014897245178349</v>
       </c>
     </row>
   </sheetData>
